--- a/biology/Zoologie/Grismadox/Grismadox.xlsx
+++ b/biology/Zoologie/Grismadox/Grismadox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grismadox est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grismadox est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Paraguay et en Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Paraguay et en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,17 à 6,20 mm. Ce sont des araignées myrmécomorphes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre mesurent de 3,17 à 6,20 mm. Ce sont des araignées myrmécomorphes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 01/09/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 01/09/2022) :
 Grismadox baueri Pett, Rubio &amp; Perger, 2022
 Grismadox elsneri Perger, Rubio &amp; Pett, 2022
 Grismadox karugua Pett, Rubio &amp; Perger, 2022
@@ -608,7 +626,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Pett, Rubio et Perger en 2022 dans les Corinnidae.
 </t>
@@ -639,9 +659,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Cristian José Grismado[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Cristian José Grismado.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pett, Rubio &amp; Perger, 2022 : « Grismadox gen. nov., a new Neotropical genus of ant-resembling spiders (Araneae, Corinnidae, Castianeirinae), including the description of two new species from Bolivia and Paraguay. » Zoosystematics and Evolution, vol. 98, no 1, p. 1-11 (texte intégral).</t>
         </is>
